--- a/report/购票 - 1.xlsx
+++ b/report/购票 - 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,11 +68,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>340208192903167135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019/05/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210283198303254890</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -516,7 +516,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
